--- a/MichiganVsMSUFile.xlsx
+++ b/MichiganVsMSUFile.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lissjust/Documents/NCAAWomens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6C9EE3-8FAE-ED43-B547-687F765A930B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5127374-7DDF-7D44-AE61-F9E7D57B1E32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{91DD581D-37E4-6C49-9749-B261A19E9776}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{91DD581D-37E4-6C49-9749-B261A19E9776}"/>
   </bookViews>
   <sheets>
     <sheet name="Michigan @ MSU" sheetId="3" r:id="rId1"/>
     <sheet name="Rotations" sheetId="4" r:id="rId2"/>
-    <sheet name="Player Rotations" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3376,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A378DC-DBA7-8749-80FC-836ED6ECB66A}">
   <dimension ref="B7:BV103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView topLeftCell="A10" zoomScale="163" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9902,8 +9901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D157CF-02E9-9D41-9BC8-64993BCF9970}">
   <dimension ref="B11:AR76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L113" sqref="L113"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10125,320 +10124,320 @@
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" s="191" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="192" t="str">
         <f>VLOOKUP($B14,$B$63:$AA$76,C$11,FALSE)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="D14" s="192" t="str">
         <f>VLOOKUP($B14,$B$63:$AA$76,D$11,FALSE)</f>
-        <v>6'0"</v>
+        <v>6'2"</v>
       </c>
       <c r="E14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,E$11,FALSE)</f>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,F$11,FALSE)</f>
-        <v>5.2</v>
+        <v>22.9</v>
       </c>
       <c r="G14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,G$11,FALSE)</f>
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,H$11,FALSE)</f>
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="I14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,I$11,FALSE)</f>
-        <v>25.8</v>
+        <v>62.8</v>
       </c>
       <c r="J14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,J$11,FALSE)</f>
-        <v>0.2</v>
+        <v>5.4</v>
       </c>
       <c r="K14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,K$11,FALSE)</f>
-        <v>0.6</v>
+        <v>8.6</v>
       </c>
       <c r="L14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,L$11,FALSE)</f>
-        <v>40</v>
+        <v>62.8</v>
       </c>
       <c r="M14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,M$11,FALSE)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,N$11,FALSE)</f>
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,O$11,FALSE)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,P$11,FALSE)</f>
-        <v>0.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,Q$11,FALSE)</f>
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="R14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,R$11,FALSE)</f>
-        <v>25</v>
+        <v>63.2</v>
       </c>
       <c r="S14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,S$11,FALSE)</f>
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="T14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,T$11,FALSE)</f>
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="U14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,U$11,FALSE)</f>
-        <v>0.6</v>
+        <v>7</v>
       </c>
       <c r="V14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,V$11,FALSE)</f>
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,W$11,FALSE)</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="X14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,X$11,FALSE)</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,Y$11,FALSE)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Z14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,Z$11,FALSE)</f>
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="AA14" s="192">
         <f>VLOOKUP($B14,$B$63:$AA$76,AA$11,FALSE)</f>
-        <v>1.3</v>
+        <v>13.1</v>
       </c>
       <c r="AC14">
         <f t="shared" ref="AC14:AC18" si="0">$S14/$F14</f>
-        <v>5.7692307692307689E-2</v>
+        <v>0.15720524017467249</v>
       </c>
       <c r="AD14">
         <f t="shared" ref="AD14:AD18" si="1">$T14/$F14</f>
-        <v>3.8461538461538464E-2</v>
+        <v>0.14847161572052403</v>
       </c>
       <c r="AE14">
         <f t="shared" ref="AE14:AE18" si="2">$G14/$F14</f>
-        <v>9.6153846153846145E-2</v>
+        <v>0.23580786026200876</v>
       </c>
       <c r="AF14">
         <f t="shared" ref="AF14:AF18" si="3">$H14/$F14</f>
-        <v>0.36538461538461536</v>
+        <v>0.37554585152838427</v>
       </c>
       <c r="AG14">
         <f t="shared" ref="AG14:AG18" si="4">$J14/$F14</f>
-        <v>3.8461538461538464E-2</v>
+        <v>0.23580786026200876</v>
       </c>
       <c r="AH14">
         <f t="shared" ref="AH14:AH18" si="5">$K14/$F14</f>
-        <v>0.11538461538461538</v>
+        <v>0.37554585152838427</v>
       </c>
       <c r="AI14">
         <f t="shared" ref="AI14:AI18" si="6">$M14/$F14</f>
-        <v>3.8461538461538464E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
         <f t="shared" ref="AJ14:AJ18" si="7">$N14/$F14</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AK14">
         <f t="shared" ref="AK14:AK18" si="8">$P14/$F14</f>
-        <v>1.9230769230769232E-2</v>
+        <v>0.10043668122270742</v>
       </c>
       <c r="AL14">
         <f t="shared" ref="AL14:AL18" si="9">$Q14/$F14</f>
-        <v>3.8461538461538464E-2</v>
+        <v>0.16157205240174674</v>
       </c>
       <c r="AM14">
         <f t="shared" ref="AM14:AM18" si="10">$V14/$F14</f>
-        <v>7.6923076923076927E-2</v>
+        <v>4.8034934497816602E-2</v>
       </c>
       <c r="AN14">
         <f t="shared" ref="AN14:AN17" si="11">$W15/$F15</f>
-        <v>6.5217391304347824E-2</v>
+        <v>8.3650190114068448E-2</v>
       </c>
       <c r="AO14">
         <f t="shared" ref="AO14:AO18" si="12">$X14/$F14</f>
-        <v>1.9230769230769232E-2</v>
+        <v>4.3668122270742363E-2</v>
       </c>
       <c r="AP14">
         <f>Y14/F14</f>
-        <v>1.9230769230769232E-2</v>
+        <v>8.7336244541484729E-3</v>
       </c>
       <c r="AQ14">
         <f t="shared" ref="AQ14:AQ18" si="13">Z14/F14</f>
-        <v>3.8461538461538464E-2</v>
+        <v>0.10480349344978167</v>
       </c>
       <c r="AR14">
         <f t="shared" ref="AR14:AR18" si="14">AA14/F14</f>
-        <v>0.25</v>
+        <v>0.57205240174672489</v>
       </c>
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B15" s="191" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C15" s="192" t="str">
         <f>VLOOKUP($B15,$B$63:$AA$76,C$11,FALSE)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="D15" s="192" t="str">
         <f>VLOOKUP($B15,$B$63:$AA$76,D$11,FALSE)</f>
-        <v>6'3"</v>
+        <v>5'10"</v>
       </c>
       <c r="E15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,E$11,FALSE)</f>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,F$11,FALSE)</f>
-        <v>4.5999999999999996</v>
+        <v>26.3</v>
       </c>
       <c r="G15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,G$11,FALSE)</f>
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,H$11,FALSE)</f>
-        <v>1.4</v>
+        <v>7.9</v>
       </c>
       <c r="I15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,I$11,FALSE)</f>
-        <v>44</v>
+        <v>38.1</v>
       </c>
       <c r="J15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,J$11,FALSE)</f>
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="K15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,K$11,FALSE)</f>
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="L15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,L$11,FALSE)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,M$11,FALSE)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,N$11,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,O$11,FALSE)</f>
-        <v>0</v>
+        <v>32.4</v>
       </c>
       <c r="P15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,P$11,FALSE)</f>
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,Q$11,FALSE)</f>
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="R15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,R$11,FALSE)</f>
-        <v>70.599999999999994</v>
+        <v>75.3</v>
       </c>
       <c r="S15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,S$11,FALSE)</f>
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="T15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,T$11,FALSE)</f>
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="U15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,U$11,FALSE)</f>
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="V15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,V$11,FALSE)</f>
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="W15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,W$11,FALSE)</f>
-        <v>0.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="X15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,X$11,FALSE)</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,Y$11,FALSE)</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Z15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,Z$11,FALSE)</f>
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="AA15" s="192">
         <f>VLOOKUP($B15,$B$63:$AA$76,AA$11,FALSE)</f>
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="AC15">
         <f t="shared" si="0"/>
-        <v>0.19565217391304349</v>
+        <v>2.6615969581749048E-2</v>
       </c>
       <c r="AD15">
         <f t="shared" si="1"/>
-        <v>0.15217391304347827</v>
+        <v>0.12167300380228137</v>
       </c>
       <c r="AE15">
         <f t="shared" si="2"/>
-        <v>0.13043478260869565</v>
+        <v>0.11406844106463879</v>
       </c>
       <c r="AF15">
         <f t="shared" si="3"/>
-        <v>0.30434782608695654</v>
+        <v>0.30038022813688214</v>
       </c>
       <c r="AG15">
         <f t="shared" si="4"/>
-        <v>0.13043478260869565</v>
+        <v>9.1254752851711016E-2</v>
       </c>
       <c r="AH15">
         <f t="shared" si="5"/>
-        <v>0.30434782608695654</v>
+        <v>0.22433460076045628</v>
       </c>
       <c r="AI15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.2813688212927754E-2</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.6045627376425853E-2</v>
       </c>
       <c r="AK15">
         <f t="shared" si="8"/>
-        <v>0.15217391304347827</v>
+        <v>7.6045627376425853E-2</v>
       </c>
       <c r="AL15">
         <f t="shared" si="9"/>
-        <v>0.19565217391304349</v>
+        <v>9.8859315589353611E-2</v>
       </c>
       <c r="AM15">
         <f t="shared" si="10"/>
-        <v>6.5217391304347824E-2</v>
+        <v>9.1254752851711016E-2</v>
       </c>
       <c r="AN15">
         <f t="shared" si="11"/>
@@ -10446,19 +10445,19 @@
       </c>
       <c r="AO15">
         <f t="shared" si="12"/>
-        <v>2.1739130434782612E-2</v>
+        <v>3.8022813688212927E-2</v>
       </c>
       <c r="AP15">
         <f t="shared" ref="AP15:AP18" si="15">Y15/F15</f>
-        <v>6.5217391304347824E-2</v>
+        <v>1.9011406844106463E-2</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="13"/>
-        <v>6.5217391304347824E-2</v>
+        <v>9.8859315589353611E-2</v>
       </c>
       <c r="AR15">
         <f t="shared" si="14"/>
-        <v>0.41304347826086957</v>
+        <v>0.32699619771863114</v>
       </c>
     </row>
     <row r="16" spans="2:44" x14ac:dyDescent="0.2">
@@ -10611,7 +10610,7 @@
       </c>
       <c r="AN16">
         <f t="shared" si="11"/>
-        <v>6.5217391304347824E-2</v>
+        <v>0.10059171597633136</v>
       </c>
       <c r="AO16">
         <f t="shared" si="12"/>
@@ -10632,184 +10631,184 @@
     </row>
     <row r="17" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B17" s="191" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" s="192" t="str">
         <f>VLOOKUP($B17,$B$63:$AA$76,C$11,FALSE)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="D17" s="192" t="str">
         <f>VLOOKUP($B17,$B$63:$AA$76,D$11,FALSE)</f>
-        <v>6'3"</v>
+        <v>6'0"</v>
       </c>
       <c r="E17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,E$11,FALSE)</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,F$11,FALSE)</f>
-        <v>4.5999999999999996</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,G$11,FALSE)</f>
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,H$11,FALSE)</f>
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="I17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,I$11,FALSE)</f>
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="J17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,J$11,FALSE)</f>
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="K17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,K$11,FALSE)</f>
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="L17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,L$11,FALSE)</f>
-        <v>44</v>
+        <v>48.1</v>
       </c>
       <c r="M17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,M$11,FALSE)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,N$11,FALSE)</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,O$11,FALSE)</f>
-        <v>0</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="P17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,P$11,FALSE)</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,Q$11,FALSE)</f>
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="R17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,R$11,FALSE)</f>
-        <v>70.599999999999994</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="S17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,S$11,FALSE)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="T17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,T$11,FALSE)</f>
-        <v>0.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,U$11,FALSE)</f>
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="V17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,V$11,FALSE)</f>
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="W17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,W$11,FALSE)</f>
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="X17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,X$11,FALSE)</f>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="Y17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,Y$11,FALSE)</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Z17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,Z$11,FALSE)</f>
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="AA17" s="192">
         <f>VLOOKUP($B17,$B$63:$AA$76,AA$11,FALSE)</f>
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="AC17">
         <f t="shared" si="0"/>
-        <v>0.19565217391304349</v>
+        <v>5.9171597633136098E-2</v>
       </c>
       <c r="AD17">
         <f t="shared" si="1"/>
-        <v>0.15217391304347827</v>
+        <v>0.13609467455621302</v>
       </c>
       <c r="AE17">
         <f t="shared" si="2"/>
-        <v>0.13043478260869565</v>
+        <v>0.12426035502958581</v>
       </c>
       <c r="AF17">
         <f t="shared" si="3"/>
-        <v>0.30434782608695654</v>
+        <v>0.27810650887573968</v>
       </c>
       <c r="AG17">
         <f t="shared" si="4"/>
-        <v>0.13043478260869565</v>
+        <v>0.10059171597633136</v>
       </c>
       <c r="AH17">
         <f t="shared" si="5"/>
-        <v>0.30434782608695654</v>
+        <v>0.20710059171597636</v>
       </c>
       <c r="AI17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.3668639053254441E-2</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AK17">
         <f t="shared" si="8"/>
-        <v>0.15217391304347827</v>
+        <v>5.9171597633136098E-2</v>
       </c>
       <c r="AL17">
         <f t="shared" si="9"/>
-        <v>0.19565217391304349</v>
+        <v>8.2840236686390539E-2</v>
       </c>
       <c r="AM17">
         <f t="shared" si="10"/>
-        <v>6.5217391304347824E-2</v>
+        <v>0.10059171597633136</v>
       </c>
       <c r="AN17">
         <f t="shared" si="11"/>
-        <v>8.3650190114068448E-2</v>
+        <v>8.2352941176470587E-2</v>
       </c>
       <c r="AO17">
         <f t="shared" si="12"/>
-        <v>2.1739130434782612E-2</v>
+        <v>5.3254437869822494E-2</v>
       </c>
       <c r="AP17">
         <f t="shared" si="15"/>
-        <v>6.5217391304347824E-2</v>
+        <v>5.9171597633136102E-3</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="13"/>
-        <v>6.5217391304347824E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AR17">
         <f t="shared" si="14"/>
-        <v>0.41304347826086957</v>
+        <v>0.33136094674556216</v>
       </c>
     </row>
     <row r="18" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B18" s="193" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="192" t="str">
         <f>VLOOKUP($B18,$B$63:$AA$76,C$11,FALSE)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="D18" s="192" t="str">
         <f>VLOOKUP($B18,$B$63:$AA$76,D$11,FALSE)</f>
-        <v>5'10"</v>
+        <v>6'5"</v>
       </c>
       <c r="E18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,E$11,FALSE)</f>
@@ -10817,135 +10816,135 @@
       </c>
       <c r="F18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,F$11,FALSE)</f>
-        <v>26.3</v>
+        <v>25.5</v>
       </c>
       <c r="G18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,G$11,FALSE)</f>
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,H$11,FALSE)</f>
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="I18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,I$11,FALSE)</f>
-        <v>38.1</v>
+        <v>52.8</v>
       </c>
       <c r="J18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,J$11,FALSE)</f>
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="K18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,K$11,FALSE)</f>
-        <v>5.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,L$11,FALSE)</f>
-        <v>40</v>
+        <v>53.9</v>
       </c>
       <c r="M18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,M$11,FALSE)</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,N$11,FALSE)</f>
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,O$11,FALSE)</f>
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="P18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,P$11,FALSE)</f>
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,Q$11,FALSE)</f>
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="R18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,R$11,FALSE)</f>
-        <v>75.3</v>
+        <v>73.2</v>
       </c>
       <c r="S18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,S$11,FALSE)</f>
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="T18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,T$11,FALSE)</f>
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,U$11,FALSE)</f>
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="V18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,V$11,FALSE)</f>
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="W18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,W$11,FALSE)</f>
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="X18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,X$11,FALSE)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,Y$11,FALSE)</f>
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,Z$11,FALSE)</f>
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AA18" s="192">
         <f>VLOOKUP($B18,$B$63:$AA$76,AA$11,FALSE)</f>
-        <v>8.6</v>
+        <v>11.8</v>
       </c>
       <c r="AC18">
         <f t="shared" si="0"/>
-        <v>2.6615969581749048E-2</v>
+        <v>7.0588235294117646E-2</v>
       </c>
       <c r="AD18">
         <f t="shared" si="1"/>
-        <v>0.12167300380228137</v>
+        <v>0.16078431372549018</v>
       </c>
       <c r="AE18">
         <f t="shared" si="2"/>
-        <v>0.11406844106463879</v>
+        <v>0.18431372549019609</v>
       </c>
       <c r="AF18">
         <f t="shared" si="3"/>
-        <v>0.30038022813688214</v>
+        <v>0.34901960784313729</v>
       </c>
       <c r="AG18">
         <f t="shared" si="4"/>
-        <v>9.1254752851711016E-2</v>
+        <v>0.18431372549019609</v>
       </c>
       <c r="AH18">
         <f t="shared" si="5"/>
-        <v>0.22433460076045628</v>
+        <v>0.34117647058823525</v>
       </c>
       <c r="AI18">
         <f t="shared" si="6"/>
-        <v>2.2813688212927754E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="7"/>
-        <v>7.6045627376425853E-2</v>
+        <v>7.8431372549019607E-3</v>
       </c>
       <c r="AK18">
         <f t="shared" si="8"/>
-        <v>7.6045627376425853E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
       <c r="AL18">
         <f t="shared" si="9"/>
-        <v>9.8859315589353611E-2</v>
+        <v>0.12941176470588234</v>
       </c>
       <c r="AM18">
         <f t="shared" si="10"/>
-        <v>9.1254752851711016E-2</v>
+        <v>7.0588235294117646E-2</v>
       </c>
       <c r="AN18" t="e">
         <f>#REF!/#REF!</f>
@@ -10953,19 +10952,19 @@
       </c>
       <c r="AO18">
         <f t="shared" si="12"/>
-        <v>3.8022813688212927E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="AP18">
         <f t="shared" si="15"/>
-        <v>1.9011406844106463E-2</v>
+        <v>4.3137254901960791E-2</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="13"/>
-        <v>9.8859315589353611E-2</v>
+        <v>9.0196078431372548E-2</v>
       </c>
       <c r="AR18">
         <f t="shared" si="14"/>
-        <v>0.32699619771863114</v>
+        <v>0.46274509803921571</v>
       </c>
     </row>
     <row r="19" spans="2:44" x14ac:dyDescent="0.2">
@@ -10978,87 +10977,87 @@
       <c r="F19" s="192"/>
       <c r="G19" s="192">
         <f t="shared" ref="G19:V19" si="16">((G14/$F14)+(G15/$F15)+(G16/$F16)+(G17/$F17)+(G18/$F18))*40</f>
-        <v>24.061065401782873</v>
+        <v>31.555406578205002</v>
       </c>
       <c r="H19" s="192">
         <f t="shared" si="16"/>
-        <v>63.500158958251205</v>
+        <v>64.643826985800516</v>
       </c>
       <c r="I19" s="195">
         <f>G19/H19</f>
-        <v>0.37891346724977576</v>
+        <v>0.48814261236631884</v>
       </c>
       <c r="J19" s="192">
         <f t="shared" si="16"/>
-        <v>18.927782087312586</v>
+        <v>27.783070009296843</v>
       </c>
       <c r="K19" s="192">
         <f t="shared" si="16"/>
-        <v>45.067029515368084</v>
+        <v>53.056735366330784</v>
       </c>
       <c r="L19" s="195">
         <f>J19/K19</f>
-        <v>0.41999178314732544</v>
+        <v>0.52364831378086774</v>
       </c>
       <c r="M19" s="192">
         <f t="shared" si="16"/>
-        <v>4.3640525452395185</v>
+        <v>3.772336568908158</v>
       </c>
       <c r="N19" s="192">
         <f t="shared" si="16"/>
-        <v>18.433129442883121</v>
+        <v>11.823778010002277</v>
       </c>
       <c r="O19" s="195">
         <f>M19/N19</f>
-        <v>0.23675049636915793</v>
+        <v>0.31904663346326068</v>
       </c>
       <c r="P19" s="192">
         <f t="shared" si="16"/>
-        <v>17.37627325559215</v>
+        <v>14.582166479469802</v>
       </c>
       <c r="Q19" s="192">
         <f t="shared" si="16"/>
-        <v>23.058051553340029</v>
+        <v>20.820378253595798</v>
       </c>
       <c r="R19" s="195">
         <f>P19/Q19</f>
-        <v>0.7535880998182235</v>
+        <v>0.70037951769446738</v>
       </c>
       <c r="S19" s="192">
         <f t="shared" si="16"/>
-        <v>20.415809351831836</v>
+        <v>13.934546055173097</v>
       </c>
       <c r="T19" s="192">
         <f t="shared" si="16"/>
-        <v>23.970599081857141</v>
+        <v>28.07224866000643</v>
       </c>
       <c r="U19" s="192">
         <f t="shared" si="16"/>
-        <v>45.329552246398009</v>
+        <v>42.180707758657789</v>
       </c>
       <c r="V19" s="192">
         <f t="shared" si="16"/>
-        <v>13.857547973600216</v>
+        <v>14.331829023059935</v>
       </c>
       <c r="W19" s="192">
         <f>((W14/$F14)+(W15/$F15)+(W16/$F16)+(W17/$F17)+(W18/$F18))*40</f>
-        <v>12.536643056067753</v>
+        <v>16.592026281029856</v>
       </c>
       <c r="X19" s="192">
         <f>((X14/$F14)+(X15/$F15)+(X16/$F16)+(X17/$F17)+(X18/$F18))*40</f>
-        <v>5.4205780993679822</v>
+        <v>7.5734330264673932</v>
       </c>
       <c r="Y19" s="192">
         <f>((Y14/$F14)+(Y15/$F15)+(Y16/$F16)+(Y17/$F17)+(Y18/$F18))*40</f>
-        <v>7.6166435647341579</v>
+        <v>3.9415430559324784</v>
       </c>
       <c r="Z19" s="192">
         <f t="shared" ref="Z19" si="17">SUM(AQ14:AQ18)*40</f>
-        <v>13.145008075079161</v>
+        <v>17.266061184439042</v>
       </c>
       <c r="AA19" s="192">
         <f>2*J19 +3*M19 + P19</f>
-        <v>68.323995065935875</v>
+        <v>81.465316204787968</v>
       </c>
     </row>
     <row r="20" spans="2:44" x14ac:dyDescent="0.2">
@@ -11280,7 +11279,7 @@
     </row>
     <row r="25" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B25" s="198" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C25" s="192" t="str">
         <f>VLOOKUP($B25,$B$47:$T$60,C$11,FALSE)</f>
@@ -11288,76 +11287,76 @@
       </c>
       <c r="D25" s="192" t="str">
         <f>VLOOKUP($B25,$B$47:$T$60,D$11,FALSE)</f>
-        <v>5'10"</v>
+        <v>6'0"</v>
       </c>
       <c r="E25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,E$11,FALSE)</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,F$11,FALSE)</f>
-        <v>26.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,G$11,FALSE)</f>
-        <v>20.399999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="H25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,H$11,FALSE)</f>
-        <v>0.94</v>
+        <v>1.04</v>
       </c>
       <c r="I25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,I$11,FALSE)</f>
-        <v>42.2</v>
+        <v>48.6</v>
       </c>
       <c r="J25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,J$11,FALSE)</f>
-        <v>21.9</v>
+        <v>23.3</v>
       </c>
       <c r="K25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,K$11,FALSE)</f>
-        <v>17.399999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="L25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,L$11,FALSE)</f>
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="M25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,M$11,FALSE)</f>
-        <v>13.5</v>
+        <v>14.9</v>
       </c>
       <c r="N25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,N$11,FALSE)</f>
-        <v>8.3000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="O25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,O$11,FALSE)</f>
-        <v>16.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="P25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,P$11,FALSE)</f>
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,Q$11,FALSE)</f>
-        <v>1.1100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="R25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,R$11,FALSE)</f>
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="S25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,S$11,FALSE)</f>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="T25" s="192">
         <f>VLOOKUP($B25,$B$47:$T$60,T$11,FALSE)</f>
-        <v>5.7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="26" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B26" s="198" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C26" s="192" t="str">
         <f>VLOOKUP($B26,$B$47:$T$60,C$11,FALSE)</f>
@@ -11365,71 +11364,71 @@
       </c>
       <c r="D26" s="192" t="str">
         <f>VLOOKUP($B26,$B$47:$T$60,D$11,FALSE)</f>
-        <v>5'11"</v>
+        <v>6'0"</v>
       </c>
       <c r="E26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,E$11,FALSE)</f>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,F$11,FALSE)</f>
-        <v>31</v>
+        <v>5.2</v>
       </c>
       <c r="G26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,G$11,FALSE)</f>
-        <v>16</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="H26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,H$11,FALSE)</f>
-        <v>1.1399999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="I26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,I$11,FALSE)</f>
-        <v>52.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="J26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,J$11,FALSE)</f>
-        <v>59.2</v>
+        <v>63.8</v>
       </c>
       <c r="K26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,K$11,FALSE)</f>
-        <v>25.5</v>
+        <v>16</v>
       </c>
       <c r="L26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,L$11,FALSE)</f>
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="M26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,M$11,FALSE)</f>
-        <v>9.8000000000000007</v>
+        <v>5.3</v>
       </c>
       <c r="N26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,N$11,FALSE)</f>
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="O26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,O$11,FALSE)</f>
-        <v>6.7</v>
+        <v>14.7</v>
       </c>
       <c r="P26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,P$11,FALSE)</f>
-        <v>14.3</v>
+        <v>8.4</v>
       </c>
       <c r="Q26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,Q$11,FALSE)</f>
-        <v>0.78</v>
+        <v>2.33</v>
       </c>
       <c r="R26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,R$11,FALSE)</f>
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="S26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,S$11,FALSE)</f>
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="T26" s="192">
         <f>VLOOKUP($B26,$B$47:$T$60,T$11,FALSE)</f>
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27" spans="2:44" x14ac:dyDescent="0.2">
@@ -11511,7 +11510,7 @@
     </row>
     <row r="28" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B28" s="199" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C28" s="192" t="str">
         <f>VLOOKUP($B28,$B$47:$T$60,C$11,FALSE)</f>
@@ -11519,71 +11518,71 @@
       </c>
       <c r="D28" s="192" t="str">
         <f>VLOOKUP($B28,$B$47:$T$60,D$11,FALSE)</f>
-        <v>5'8"</v>
+        <v>5'10"</v>
       </c>
       <c r="E28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,E$11,FALSE)</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,F$11,FALSE)</f>
-        <v>4.4000000000000004</v>
+        <v>26.3</v>
       </c>
       <c r="G28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,G$11,FALSE)</f>
-        <v>11.3</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="H28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,H$11,FALSE)</f>
-        <v>0.65</v>
+        <v>0.94</v>
       </c>
       <c r="I28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,I$11,FALSE)</f>
-        <v>26.9</v>
+        <v>42.2</v>
       </c>
       <c r="J28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,J$11,FALSE)</f>
-        <v>43</v>
+        <v>21.9</v>
       </c>
       <c r="K28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,K$11,FALSE)</f>
-        <v>11.9</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="L28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,L$11,FALSE)</f>
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,M$11,FALSE)</f>
-        <v>4.5999999999999996</v>
+        <v>13.5</v>
       </c>
       <c r="N28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,N$11,FALSE)</f>
-        <v>4.0999999999999996</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="O28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,O$11,FALSE)</f>
-        <v>22.8</v>
+        <v>16.7</v>
       </c>
       <c r="P28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,P$11,FALSE)</f>
-        <v>39.200000000000003</v>
+        <v>19.5</v>
       </c>
       <c r="Q28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,Q$11,FALSE)</f>
-        <v>1.56</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="R28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,R$11,FALSE)</f>
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="S28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,S$11,FALSE)</f>
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="T28" s="192">
         <f>VLOOKUP($B28,$B$47:$T$60,T$11,FALSE)</f>
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="29" spans="2:44" x14ac:dyDescent="0.2">
@@ -11595,63 +11594,63 @@
       <c r="E29" s="197"/>
       <c r="F29" s="197">
         <f t="shared" ref="F29:T29" si="18">AVERAGE(F$24:F$28)</f>
-        <v>23.14</v>
+        <v>20.479999999999997</v>
       </c>
       <c r="G29" s="197">
         <f t="shared" si="18"/>
-        <v>16.52</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="H29" s="197">
         <f t="shared" si="18"/>
-        <v>0.97399999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I29" s="197">
         <f t="shared" si="18"/>
-        <v>44.58</v>
+        <v>44.86</v>
       </c>
       <c r="J29" s="197">
         <f t="shared" si="18"/>
-        <v>44.6</v>
+        <v>41.58</v>
       </c>
       <c r="K29" s="197">
         <f t="shared" si="18"/>
-        <v>18.380000000000003</v>
+        <v>17.28</v>
       </c>
       <c r="L29" s="197">
         <f t="shared" si="18"/>
-        <v>2.54</v>
+        <v>4.3</v>
       </c>
       <c r="M29" s="197">
         <f t="shared" si="18"/>
-        <v>10.56</v>
+        <v>11.72</v>
       </c>
       <c r="N29" s="197">
         <f t="shared" si="18"/>
-        <v>6.62</v>
+        <v>8.0799999999999983</v>
       </c>
       <c r="O29" s="197">
         <f t="shared" si="18"/>
-        <v>12.279999999999998</v>
+        <v>12.940000000000001</v>
       </c>
       <c r="P29" s="197">
         <f t="shared" si="18"/>
-        <v>20.54</v>
+        <v>16.32</v>
       </c>
       <c r="Q29" s="197">
         <f t="shared" si="18"/>
-        <v>0.99600000000000011</v>
+        <v>1.19</v>
       </c>
       <c r="R29" s="197">
         <f t="shared" si="18"/>
-        <v>2.62</v>
+        <v>2.04</v>
       </c>
       <c r="S29" s="197">
         <f t="shared" si="18"/>
-        <v>1.2599999999999998</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="T29" s="197">
         <f t="shared" si="18"/>
-        <v>4.2200000000000006</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="30" spans="2:44" x14ac:dyDescent="0.2">
@@ -13765,6 +13764,210 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G19:G20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H20">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I20">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J20">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K20">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L20">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:M20">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19:W20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19:Z20">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R20">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19:Q20">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19:P20">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:O20">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N20">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19:S20">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19:T20">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:U20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V19:V20">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -13776,7 +13979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H20">
+  <conditionalFormatting sqref="X19:X20">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -13788,7 +13991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I20">
+  <conditionalFormatting sqref="Y19:Y20">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -13800,7 +14003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J20">
+  <conditionalFormatting sqref="AA19:AA20">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -13812,7 +14015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K20">
+  <conditionalFormatting sqref="G24:G28">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -13824,7 +14027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L20">
+  <conditionalFormatting sqref="H24:H28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -13836,7 +14039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19:M20">
+  <conditionalFormatting sqref="I24:I28">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -13848,7 +14051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19:W20">
+  <conditionalFormatting sqref="P24:P28">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -13860,7 +14063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z19:Z20">
+  <conditionalFormatting sqref="T24:T28">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -13872,7 +14075,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19:R20">
+  <conditionalFormatting sqref="J24:J29">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -13884,7 +14087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19:Q20">
+  <conditionalFormatting sqref="K24:K28">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -13896,7 +14099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P20">
+  <conditionalFormatting sqref="L24:L28">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -13908,7 +14111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19:O20">
+  <conditionalFormatting sqref="M24:M28">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -13920,7 +14123,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N20">
+  <conditionalFormatting sqref="N24:N28">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -13932,7 +14135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S19:S20">
+  <conditionalFormatting sqref="O24:O28">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -13944,7 +14147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19:T20">
+  <conditionalFormatting sqref="Q24:Q28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13956,7 +14159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U19:U20">
+  <conditionalFormatting sqref="R24:R28">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -13968,7 +14171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V19:V20">
+  <conditionalFormatting sqref="S24:S28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -13980,7 +14183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X19:X20">
+  <conditionalFormatting sqref="F24:F28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -13992,7 +14195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y19:Y20">
+  <conditionalFormatting sqref="E24:E28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14004,7 +14207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA19:AA20">
+  <conditionalFormatting sqref="D24:D28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14024,18 +14227,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFE229E-C643-2B4F-B7AA-2D418CBAB565}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MichiganVsMSUFile.xlsx
+++ b/MichiganVsMSUFile.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lissjust/Documents/NCAAWomens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A49673-674C-ED4E-958E-67B2C68CAD28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8BE5C9-F332-D54B-A94A-54727D900BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{91DD581D-37E4-6C49-9749-B261A19E9776}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{91DD581D-37E4-6C49-9749-B261A19E9776}"/>
   </bookViews>
   <sheets>
     <sheet name="Michigan @ MSU" sheetId="3" r:id="rId1"/>
     <sheet name="Rotations" sheetId="4" r:id="rId2"/>
     <sheet name="Rotations MSU" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="187">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="961" uniqueCount="187">
   <si>
     <t>*color scheme corresponds to the stats relation to the BIG TEN average</t>
   </si>
@@ -593,7 +596,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1333,15 +1336,15 @@
   </fills>
   <borders count="14">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1349,12 +1352,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1364,10 +1367,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <start/>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1377,21 +1380,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </start>
+      <end/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1399,8 +1402,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1408,10 +1411,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <start/>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1419,12 +1422,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1432,10 +1435,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </start>
+      <end/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1443,10 +1446,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <start/>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1454,12 +1457,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1467,8 +1470,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1478,10 +1481,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </start>
+      <end/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1495,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1764,6 +1767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1783,7 +1787,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1822,20 +1826,20 @@
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
+              <a:shade val="50%"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1859,26 +1863,26 @@
             <a:t> (12-2) @</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0%"/>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0%"/>
             <a:t>Michigan St. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0%"/>
             <a:t>(10-4)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0%"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0%"/>
             <a:t>1-21-2018</a:t>
           </a:r>
         </a:p>
@@ -1908,7 +1912,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1964,7 +1968,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2020,7 +2024,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2076,7 +2080,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2148,20 +2152,20 @@
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
+              <a:shade val="50%"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -2185,26 +2189,26 @@
             <a:t> (12-2) @</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0%"/>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0%"/>
             <a:t>Michigan St. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0%"/>
             <a:t>(10-4)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0%"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0%"/>
             <a:t>1-21-2018</a:t>
           </a:r>
         </a:p>
@@ -2234,7 +2238,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2290,7 +2294,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2362,20 +2366,20 @@
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
+              <a:shade val="50%"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -2399,26 +2403,26 @@
             <a:t> (12-2) @</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0%"/>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0%"/>
             <a:t>Michigan St. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0%"/>
             <a:t>(10-4)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0%"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:rPr lang="en-US" sz="1800" baseline="0%"/>
             <a:t>1-21-2018</a:t>
           </a:r>
         </a:p>
@@ -2448,7 +2452,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2504,7 +2508,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2560,7 +2564,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2616,7 +2620,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2672,7 +2676,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2728,7 +2732,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2784,7 +2788,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2840,7 +2844,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2896,7 +2900,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2952,7 +2956,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2990,7 +2994,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3018,7 +3022,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3090,20 +3094,20 @@
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
+              <a:shade val="50%"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -3138,7 +3142,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -3177,20 +3181,20 @@
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
+              <a:shade val="50%"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -3243,7 +3247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3281,7 +3285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3434,25 +3438,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3460,25 +3464,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3491,21 +3495,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -3519,7 +3523,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -3531,32 +3535,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3576,11 +3580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A378DC-DBA7-8749-80FC-836ED6ECB66A}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A378DC-DBA7-8749-80FC-836ED6ECB66A}">
   <dimension ref="B7:BV103"/>
   <sheetViews>
-    <sheetView topLeftCell="L23" zoomScale="75" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScale="75" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10102,11 +10106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D157CF-02E9-9D41-9BC8-64993BCF9970}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D157CF-02E9-9D41-9BC8-64993BCF9970}">
   <dimension ref="B11:BW90"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="89" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="AX19" sqref="AX19:BR20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11977,75 +11981,75 @@
         <v>25.539696960815917</v>
       </c>
       <c r="AY19" s="192">
-        <f>((AY14/$AW14)+(AY15/$AW15)+(AY16/$AW16)+(AY17/$AW17)+(AY18/$AW18))*40</f>
+        <f t="shared" ref="AY19:BR19" si="17">((AY14/$AW14)+(AY15/$AW15)+(AY16/$AW16)+(AY17/$AW17)+(AY18/$AW18))*40</f>
         <v>55.290290436974288</v>
       </c>
-      <c r="AZ19" s="192">
-        <f>((AZ14/$AW14)+(AZ15/$AW15)+(AZ16/$AW16)+(AZ17/$AW17)+(AZ18/$AW18))*40</f>
-        <v>322.31177280853439</v>
+      <c r="AZ19" s="195">
+        <f>AX19/AY19</f>
+        <v>0.46192010855737431</v>
       </c>
       <c r="BA19" s="192">
-        <f>((BA14/$AW14)+(BA15/$AW15)+(BA16/$AW16)+(BA17/$AW17)+(BA18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>23.928958705782367</v>
       </c>
       <c r="BB19" s="192">
-        <f>((BB14/$AW14)+(BB15/$AW15)+(BB16/$AW16)+(BB17/$AW17)+(BB18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>50.994988423551476</v>
       </c>
-      <c r="BC19" s="192">
-        <f>((BC14/$AW14)+(BC15/$AW15)+(BC16/$AW16)+(BC17/$AW17)+(BC18/$AW18))*40</f>
-        <v>326.07016207027925</v>
+      <c r="BC19" s="195">
+        <f>BA19/BB19</f>
+        <v>0.46924137931034493</v>
       </c>
       <c r="BD19" s="192">
-        <f>((BD14/$AW14)+(BD15/$AW15)+(BD16/$AW16)+(BD17/$AW17)+(BD18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>1.6107382550335569</v>
       </c>
       <c r="BE19" s="192">
-        <f>((BE14/$AW14)+(BE15/$AW15)+(BE16/$AW16)+(BE17/$AW17)+(BE18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>4.2953020134228188</v>
       </c>
-      <c r="BF19" s="192">
-        <f>((BF14/$AW14)+(BF15/$AW15)+(BF16/$AW16)+(BF17/$AW17)+(BF18/$AW18))*40</f>
-        <v>178.79194630872479</v>
+      <c r="BF19" s="195">
+        <f>BD19/BE19</f>
+        <v>0.375</v>
       </c>
       <c r="BG19" s="192">
-        <f>((BG14/$AW14)+(BG15/$AW15)+(BG16/$AW16)+(BG17/$AW17)+(BG18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>7.7758565106532629</v>
       </c>
       <c r="BH19" s="192">
-        <f>((BH14/$AW14)+(BH15/$AW15)+(BH16/$AW16)+(BH17/$AW17)+(BH18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>12.905835116204097</v>
       </c>
-      <c r="BI19" s="192">
-        <f>((BI14/$AW14)+(BI15/$AW15)+(BI16/$AW16)+(BI17/$AW17)+(BI18/$AW18))*40</f>
-        <v>429.31918759708094</v>
+      <c r="BI19" s="195">
+        <f>BG19/BH19</f>
+        <v>0.60250703969479513</v>
       </c>
       <c r="BJ19" s="192">
-        <f>((BJ14/$AW14)+(BJ15/$AW15)+(BJ16/$AW16)+(BJ17/$AW17)+(BJ18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>11.657337123765423</v>
       </c>
       <c r="BK19" s="192">
-        <f>((BK14/$AW14)+(BK15/$AW15)+(BK16/$AW16)+(BK17/$AW17)+(BK18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>19.361683420767267</v>
       </c>
       <c r="BL19" s="192">
-        <f>((BL14/$AW14)+(BL15/$AW15)+(BL16/$AW16)+(BL17/$AW17)+(BL18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>31.019020544532694</v>
       </c>
       <c r="BM19" s="192">
-        <f>((BM14/$AW14)+(BM15/$AW15)+(BM16/$AW16)+(BM17/$AW17)+(BM18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>26.08247120541602</v>
       </c>
       <c r="BN19" s="192">
-        <f t="shared" ref="AY19:BR19" si="17">((BN14/$AW14)+(BN15/$AW15)+(BN16/$AW16)+(BN17/$AW17)+(BN18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>21.211570587028518</v>
       </c>
       <c r="BO19" s="192">
-        <f>((BO14/$AW14)+(BO15/$AW15)+(BO16/$AW16)+(BO17/$AW17)+(BO18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>8.1896779109639226</v>
       </c>
       <c r="BP19" s="192">
-        <f>((BP14/$AW14)+(BP15/$AW15)+(BP16/$AW16)+(BP17/$AW17)+(BP18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>0.88625772984379114</v>
       </c>
       <c r="BQ19" s="192">
@@ -12053,7 +12057,7 @@
         <v>14.393482019870461</v>
       </c>
       <c r="BR19" s="192">
-        <f>((BR14/$AW14)+(BR15/$AW15)+(BR16/$AW16)+(BR17/$AW17)+(BR18/$AW18))*40</f>
+        <f t="shared" si="17"/>
         <v>59.929075935640803</v>
       </c>
     </row>
@@ -12143,64 +12147,69 @@
         <v>29.274509803921568</v>
       </c>
       <c r="AY20" s="192">
-        <v>29.274509803921568</v>
-      </c>
-      <c r="AZ20" s="192">
-        <v>29.274509803921568</v>
+        <v>62.647058823529413</v>
+      </c>
+      <c r="AZ20" s="195">
+        <f>AX20/AY20</f>
+        <v>0.46729264475743348</v>
       </c>
       <c r="BA20" s="192">
-        <v>29.274509803921568</v>
+        <f>AX20-BD20</f>
+        <v>22.509803921568626</v>
       </c>
       <c r="BB20" s="192">
-        <v>29.274509803921568</v>
-      </c>
-      <c r="BC20" s="192">
-        <v>29.274509803921568</v>
+        <f>AY20-BE20</f>
+        <v>44.862745098039213</v>
+      </c>
+      <c r="BC20" s="195">
+        <f>BA20/BB20</f>
+        <v>0.50174825174825177</v>
       </c>
       <c r="BD20" s="192">
-        <v>29.274509803921568</v>
+        <v>6.7647058823529411</v>
       </c>
       <c r="BE20" s="192">
-        <v>29.274509803921568</v>
-      </c>
-      <c r="BF20" s="192">
-        <v>29.274509803921568</v>
+        <v>17.784313725490197</v>
+      </c>
+      <c r="BF20" s="195">
+        <v>0.38037486218302091</v>
       </c>
       <c r="BG20" s="192">
-        <v>29.274509803921568</v>
+        <v>11.372549019607844</v>
       </c>
       <c r="BH20" s="192">
-        <v>29.274509803921568</v>
-      </c>
-      <c r="BI20" s="192">
-        <v>29.274509803921568</v>
+        <v>15.372549019607844</v>
+      </c>
+      <c r="BI20" s="195">
+        <v>0.73979591836734693</v>
       </c>
       <c r="BJ20" s="192">
-        <v>29.274509803921568</v>
+        <v>10.529411764705882</v>
       </c>
       <c r="BK20" s="192">
-        <v>29.274509803921568</v>
+        <v>24.058823529411764</v>
       </c>
       <c r="BL20" s="192">
-        <v>29.274509803921568</v>
+        <v>34.588235294117645</v>
       </c>
       <c r="BM20" s="192">
-        <v>29.274509803921568</v>
+        <v>16.274509803921568</v>
       </c>
       <c r="BN20" s="192">
         <v>13.96078431372549</v>
       </c>
       <c r="BO20" s="192">
-        <v>29.274509803921568</v>
+        <v>7.7450980392156863</v>
       </c>
       <c r="BP20" s="192">
-        <v>29.274509803921568</v>
+        <v>3.0784313725490198</v>
       </c>
       <c r="BQ20" s="192">
         <v>15.529411764705882</v>
       </c>
       <c r="BR20" s="192">
-        <v>29.274509803921568</v>
+        <f>2*BA20 +3*BD20 + BG20</f>
+        <v>76.686274509803923</v>
       </c>
     </row>
     <row r="23" spans="2:75" x14ac:dyDescent="0.2">
@@ -14725,7 +14734,7 @@
         <f>H19</f>
         <v>64.033757630547512</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="216">
         <f>I19</f>
         <v>0.44194755708760014</v>
       </c>
@@ -14737,7 +14746,7 @@
         <f>K19</f>
         <v>51.564313069901296</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="216">
         <f>L19</f>
         <v>0.47566281264723426</v>
       </c>
@@ -14749,7 +14758,7 @@
         <f>N19</f>
         <v>12.706130951178745</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="216">
         <f>O19</f>
         <v>0.29689105073784866</v>
       </c>
@@ -14761,7 +14770,7 @@
         <f>Q19</f>
         <v>20.2398490987024</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="216">
         <f>R19</f>
         <v>0.7108861618562492</v>
       </c>
@@ -14814,9 +14823,9 @@
         <f>AY19</f>
         <v>55.290290436974288</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="216">
         <f>AZ19</f>
-        <v>322.31177280853439</v>
+        <v>0.46192010855737431</v>
       </c>
       <c r="J53">
         <f>BA19</f>
@@ -14826,9 +14835,9 @@
         <f>BB19</f>
         <v>50.994988423551476</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="216">
         <f>BC19</f>
-        <v>326.07016207027925</v>
+        <v>0.46924137931034493</v>
       </c>
       <c r="M53">
         <f>BD19</f>
@@ -14838,9 +14847,9 @@
         <f>BE19</f>
         <v>4.2953020134228188</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="216">
         <f>BF19</f>
-        <v>178.79194630872479</v>
+        <v>0.375</v>
       </c>
       <c r="P53">
         <f>BG19</f>
@@ -14850,9 +14859,9 @@
         <f>BH19</f>
         <v>12.905835116204097</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="216">
         <f>BI19</f>
-        <v>429.31918759708094</v>
+        <v>0.60250703969479513</v>
       </c>
       <c r="S53">
         <f>BJ19</f>
@@ -17009,6 +17018,486 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G19:G20">
+    <cfRule type="colorScale" priority="298">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H20">
+    <cfRule type="colorScale" priority="297">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I20">
+    <cfRule type="colorScale" priority="296">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J20">
+    <cfRule type="colorScale" priority="295">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K20">
+    <cfRule type="colorScale" priority="294">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L20">
+    <cfRule type="colorScale" priority="293">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:M20">
+    <cfRule type="colorScale" priority="292">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19:W20">
+    <cfRule type="colorScale" priority="291">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19:Z20">
+    <cfRule type="colorScale" priority="290">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R20">
+    <cfRule type="colorScale" priority="289">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19:Q20">
+    <cfRule type="colorScale" priority="288">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19:P20">
+    <cfRule type="colorScale" priority="287">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:O20">
+    <cfRule type="colorScale" priority="286">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N20">
+    <cfRule type="colorScale" priority="285">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19:S20">
+    <cfRule type="colorScale" priority="284">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19:T20">
+    <cfRule type="colorScale" priority="283">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:U20">
+    <cfRule type="colorScale" priority="282">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V19:V20">
+    <cfRule type="colorScale" priority="281">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19:X20">
+    <cfRule type="colorScale" priority="280">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y19:Y20">
+    <cfRule type="colorScale" priority="279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA19:AA20">
+    <cfRule type="colorScale" priority="278">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G40">
+    <cfRule type="colorScale" priority="277">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H40">
+    <cfRule type="colorScale" priority="276">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I40">
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36:P40">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T36:T40">
+    <cfRule type="colorScale" priority="273">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:J40">
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:K40">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36:L40">
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36:M40">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36:N40">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36:O40">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36:Q40">
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36:R40">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36:S40">
+    <cfRule type="colorScale" priority="264">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:D40">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G29">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H29">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I29">
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J29">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:K29">
     <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
@@ -17020,7 +17509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H20">
+  <conditionalFormatting sqref="L25:L29">
     <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
@@ -17032,7 +17521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I20">
+  <conditionalFormatting sqref="M25:M29">
     <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
@@ -17044,7 +17533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J20">
+  <conditionalFormatting sqref="N25:N29">
     <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
@@ -17056,7 +17545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K20">
+  <conditionalFormatting sqref="O25:O29">
     <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
@@ -17068,7 +17557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L20">
+  <conditionalFormatting sqref="P25:P29">
     <cfRule type="colorScale" priority="251">
       <colorScale>
         <cfvo type="min"/>
@@ -17080,7 +17569,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19:M20">
+  <conditionalFormatting sqref="Q25:Q29">
     <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
@@ -17092,19 +17581,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19:W20">
+  <conditionalFormatting sqref="R25:R29">
     <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z19:Z20">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25:W29">
     <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
@@ -17116,19 +17605,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19:R20">
+  <conditionalFormatting sqref="Z25:Z29">
     <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19:Q20">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25:AA29">
     <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
@@ -17140,7 +17629,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19:P20">
+  <conditionalFormatting sqref="Y25:Y29">
     <cfRule type="colorScale" priority="245">
       <colorScale>
         <cfvo type="min"/>
@@ -17152,7 +17641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19:O20">
+  <conditionalFormatting sqref="X25:X29">
     <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
@@ -17164,7 +17653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N20">
+  <conditionalFormatting sqref="V25:V29">
     <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
@@ -17176,7 +17665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S19:S20">
+  <conditionalFormatting sqref="U25:U29">
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
@@ -17188,7 +17677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19:T20">
+  <conditionalFormatting sqref="T25:T29">
     <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
@@ -17200,508 +17689,748 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U19:U20">
+  <conditionalFormatting sqref="S25:S29">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V19:V20">
-    <cfRule type="colorScale" priority="239">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X19:X20">
-    <cfRule type="colorScale" priority="238">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y19:Y20">
-    <cfRule type="colorScale" priority="237">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA19:AA20">
-    <cfRule type="colorScale" priority="236">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G40">
-    <cfRule type="colorScale" priority="235">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H40">
-    <cfRule type="colorScale" priority="234">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I40">
-    <cfRule type="colorScale" priority="233">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P36:P40">
-    <cfRule type="colorScale" priority="232">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T36:T40">
-    <cfRule type="colorScale" priority="231">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:J40">
-    <cfRule type="colorScale" priority="230">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:K40">
-    <cfRule type="colorScale" priority="229">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36:L40">
-    <cfRule type="colorScale" priority="228">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M36:M40">
-    <cfRule type="colorScale" priority="227">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N36:N40">
-    <cfRule type="colorScale" priority="226">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:O40">
-    <cfRule type="colorScale" priority="225">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q36:Q40">
-    <cfRule type="colorScale" priority="224">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R36:R40">
-    <cfRule type="colorScale" priority="223">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36:S40">
-    <cfRule type="colorScale" priority="222">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D40">
-    <cfRule type="colorScale" priority="219">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G29">
-    <cfRule type="colorScale" priority="218">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H29">
-    <cfRule type="colorScale" priority="217">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I29">
-    <cfRule type="colorScale" priority="216">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J29">
-    <cfRule type="colorScale" priority="215">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:K29">
-    <cfRule type="colorScale" priority="214">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L29">
-    <cfRule type="colorScale" priority="213">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25:M29">
-    <cfRule type="colorScale" priority="212">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25:N29">
-    <cfRule type="colorScale" priority="211">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O29">
-    <cfRule type="colorScale" priority="210">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P29">
-    <cfRule type="colorScale" priority="209">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:Q29">
-    <cfRule type="colorScale" priority="208">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25:R29">
-    <cfRule type="colorScale" priority="207">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W25:W29">
-    <cfRule type="colorScale" priority="206">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z25:Z29">
-    <cfRule type="colorScale" priority="205">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA25:AA29">
-    <cfRule type="colorScale" priority="204">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y25:Y29">
-    <cfRule type="colorScale" priority="203">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X25:X29">
-    <cfRule type="colorScale" priority="202">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V25:V29">
-    <cfRule type="colorScale" priority="201">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U25:U29">
-    <cfRule type="colorScale" priority="200">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T29">
-    <cfRule type="colorScale" priority="199">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:S29">
-    <cfRule type="colorScale" priority="197">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="198">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX20">
-    <cfRule type="colorScale" priority="196">
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX25:BR29">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX25:AX29">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY25:AY29">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA25:BA29">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB25:BB29">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD25:BD29">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE25:BE29">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG25:BG29">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH25:BH29">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ25:BJ29">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK25:BK29">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL25:BL29">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM25:BM29">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN25:BN29">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO25:BO29">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP25:BP29">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ25:BQ29">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR25:BR29">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX36:AX40">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY36:AY40">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ36:AZ40">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA36:BA40">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB36:BB40">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC36:BC40">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD36:BD40">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE36:BE40">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF36:BF40">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG36:BG40">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH36:BH40">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI36:BI40">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ36:BJ40">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK36:BK40">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:G53">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:H53">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:I53">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J53">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:K53">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:L53">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M52:M53">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52:N53">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O52:O53">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52:P53">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q52:Q53">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R52:R53">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S52:S53">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52:T53">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U52:U53">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V52:V53">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W52:W53">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X52:X53">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y52:Y53">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA52:AA53">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z52:Z53">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW17">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX19:AX20 AY19:BR19">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ20">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB20">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC20">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD20">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17713,7 +18442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN20">
-    <cfRule type="colorScale" priority="189">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17725,895 +18454,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ20">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX25:BR29">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX25:AX29">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY25:AY29">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA25:BA29">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB25:BB29">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD25:BD29">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE25:BE29">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG25:BG29">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH25:BH29">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ25:BJ29">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK25:BK29">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL25:BL29">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM25:BM29">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN25:BN29">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO25:BO29">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP25:BP29">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ25:BQ29">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR25:BR29">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX36:AX40">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY36:AY40">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ36:AZ40">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA36:BA40">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB36:BB40">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC36:BC40">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD36:BD40">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE36:BE40">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF36:BF40">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG36:BG40">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH36:BH40">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI36:BI40">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ36:BJ40">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK36:BK40">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G53">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H53">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:I53">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J53">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K53">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52:L53">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M52:M53">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N52:N53">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O52:O53">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P52:P53">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q52:Q53">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R52:R53">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S52:S53">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T52:T53">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U52:U53">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V52:V53">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W52:W53">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X52:X53">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y52:Y53">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA52:AA53">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z52:Z53">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX19 BN19 BQ19">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BW17">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX19:AX20">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY20">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY19">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY19:AY20">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ20">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ19">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ19:AZ20">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA20">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA19">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA19:BA20">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB20">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB19">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB19:BB20">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC20">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC19">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC19:BC20">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD20">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD19">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD19:BD20">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI20">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF20">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18625,175 +18514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE20">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE19">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE19:BE20">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF20">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF19">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF19:BF20">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG20">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG19">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG19:BG20">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH20">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH19">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH19:BH20">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI20">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI19">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI19:BI20">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18805,31 +18526,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ20">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ19">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ19:BJ20">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18841,31 +18538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK19">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK19:BK20">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18877,31 +18550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL20">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL19">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL19:BL20">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18913,31 +18562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM20">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM19">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM19:BM20">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18949,31 +18574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO20">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO19">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO19:BO20">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18985,31 +18586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP20">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP19">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP19:BP20">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19021,62 +18598,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR20">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR19:BR20">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN19:BN20">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ19:BQ20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -19091,11 +18620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB42CBB-77C8-A940-ADFF-4B8EC1111533}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB42CBB-77C8-A940-ADFF-4B8EC1111533}">
   <dimension ref="B11:BR90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="P100" sqref="P100"/>
+    <sheetView zoomScale="50" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20965,9 +20494,9 @@
         <f>((AY14/$AW14)+(AY15/$AW15)+(AY16/$AW16)+(AY17/$AW17)+(AY18/$AW18))*40</f>
         <v>64.264842975304447</v>
       </c>
-      <c r="AZ19" s="192">
-        <f>((AZ14/$AW14)+(AZ15/$AW15)+(AZ16/$AW16)+(AZ17/$AW17)+(AZ18/$AW18))*40</f>
-        <v>365.51715260691958</v>
+      <c r="AZ19" s="195">
+        <f>AX19/AY19</f>
+        <v>0.45991387773519293</v>
       </c>
       <c r="BA19" s="192">
         <f>((BA14/$AW14)+(BA15/$AW15)+(BA16/$AW16)+(BA17/$AW17)+(BA18/$AW18))*40</f>
@@ -20977,9 +20506,9 @@
         <f>((BB14/$AW14)+(BB15/$AW15)+(BB16/$AW16)+(BB17/$AW17)+(BB18/$AW18))*40</f>
         <v>44.263635103105813</v>
       </c>
-      <c r="BC19" s="192">
-        <f>((BC14/$AW14)+(BC15/$AW15)+(BC16/$AW16)+(BC17/$AW17)+(BC18/$AW18))*40</f>
-        <v>380.57531778474413</v>
+      <c r="BC19" s="195">
+        <f>BA19/BB19</f>
+        <v>0.49589396727806551</v>
       </c>
       <c r="BD19" s="192">
         <f>((BD14/$AW14)+(BD15/$AW15)+(BD16/$AW16)+(BD17/$AW17)+(BD18/$AW18))*40</f>
@@ -20989,9 +20518,9 @@
         <f>((BE14/$AW14)+(BE15/$AW15)+(BE16/$AW16)+(BE17/$AW17)+(BE18/$AW18))*40</f>
         <v>20.393346026954863</v>
       </c>
-      <c r="BF19" s="192">
-        <f>((BF14/$AW14)+(BF15/$AW15)+(BF16/$AW16)+(BF17/$AW17)+(BF18/$AW18))*40</f>
-        <v>294.01642026403306</v>
+      <c r="BF19" s="195">
+        <f>BD19/BE19</f>
+        <v>0.3729757494103344</v>
       </c>
       <c r="BG19" s="192">
         <f>((BG14/$AW14)+(BG15/$AW15)+(BG16/$AW16)+(BG17/$AW17)+(BG18/$AW18))*40</f>
@@ -21001,9 +20530,9 @@
         <f>((BH14/$AW14)+(BH15/$AW15)+(BH16/$AW16)+(BH17/$AW17)+(BH18/$AW18))*40</f>
         <v>15.806976801943494</v>
       </c>
-      <c r="BI19" s="192">
-        <f>((BI14/$AW14)+(BI15/$AW15)+(BI16/$AW16)+(BI17/$AW17)+(BI18/$AW18))*40</f>
-        <v>574.70583484382678</v>
+      <c r="BI19" s="195">
+        <f>BG19/BH19</f>
+        <v>0.73586308118288268</v>
       </c>
       <c r="BJ19" s="192">
         <f>((BJ14/$AW14)+(BJ15/$AW15)+(BJ16/$AW16)+(BJ17/$AW17)+(BJ18/$AW18))*40</f>
@@ -21128,64 +20657,64 @@
         <v>29.274509803921568</v>
       </c>
       <c r="AY20" s="192">
-        <v>29.274509803921568</v>
-      </c>
-      <c r="AZ20" s="192">
-        <v>29.274509803921568</v>
+        <v>62.647058823529413</v>
+      </c>
+      <c r="AZ20" s="195">
+        <v>0.46729264475743348</v>
       </c>
       <c r="BA20" s="192">
-        <v>29.274509803921568</v>
+        <v>22.509803921568626</v>
       </c>
       <c r="BB20" s="192">
-        <v>29.274509803921568</v>
-      </c>
-      <c r="BC20" s="192">
-        <v>29.274509803921568</v>
+        <v>44.862745098039213</v>
+      </c>
+      <c r="BC20" s="195">
+        <v>0.50174825174825177</v>
       </c>
       <c r="BD20" s="192">
-        <v>29.274509803921568</v>
+        <v>6.7647058823529411</v>
       </c>
       <c r="BE20" s="192">
-        <v>29.274509803921568</v>
-      </c>
-      <c r="BF20" s="192">
-        <v>29.274509803921568</v>
+        <v>17.784313725490197</v>
+      </c>
+      <c r="BF20" s="195">
+        <v>0.38037486218302091</v>
       </c>
       <c r="BG20" s="192">
-        <v>29.274509803921568</v>
+        <v>11.372549019607844</v>
       </c>
       <c r="BH20" s="192">
-        <v>29.274509803921568</v>
-      </c>
-      <c r="BI20" s="192">
-        <v>29.274509803921568</v>
+        <v>15.372549019607844</v>
+      </c>
+      <c r="BI20" s="195">
+        <v>0.73979591836734693</v>
       </c>
       <c r="BJ20" s="192">
-        <v>29.274509803921568</v>
+        <v>10.529411764705882</v>
       </c>
       <c r="BK20" s="192">
-        <v>29.274509803921568</v>
+        <v>24.058823529411764</v>
       </c>
       <c r="BL20" s="192">
-        <v>29.274509803921568</v>
+        <v>34.588235294117645</v>
       </c>
       <c r="BM20" s="192">
-        <v>29.274509803921568</v>
+        <v>16.274509803921568</v>
       </c>
       <c r="BN20" s="192">
         <v>13.96078431372549</v>
       </c>
       <c r="BO20" s="192">
-        <v>29.274509803921568</v>
+        <v>7.7450980392156863</v>
       </c>
       <c r="BP20" s="192">
-        <v>29.274509803921568</v>
+        <v>3.0784313725490198</v>
       </c>
       <c r="BQ20" s="192">
         <v>15.529411764705882</v>
       </c>
       <c r="BR20" s="192">
-        <v>29.274509803921568</v>
+        <v>76.686274509803923</v>
       </c>
     </row>
     <row r="23" spans="2:70" x14ac:dyDescent="0.2">
@@ -23710,7 +23239,7 @@
         <f>H19</f>
         <v>60.354953413337526</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="216">
         <f>I19</f>
         <v>0.43960966669640478</v>
       </c>
@@ -23722,7 +23251,7 @@
         <f>K19</f>
         <v>36.087348390671671</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="216">
         <f>L19</f>
         <v>0.45200580241315902</v>
       </c>
@@ -23734,7 +23263,7 @@
         <f>N19</f>
         <v>24.446977219975278</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="216">
         <f>O19</f>
         <v>0.41255795599340916</v>
       </c>
@@ -23746,7 +23275,7 @@
         <f>Q19</f>
         <v>13.584734345772363</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="216">
         <f>R19</f>
         <v>0.75994076142997857</v>
       </c>
@@ -23799,9 +23328,9 @@
         <f>AY19</f>
         <v>64.264842975304447</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="216">
         <f>AZ19</f>
-        <v>365.51715260691958</v>
+        <v>0.45991387773519293</v>
       </c>
       <c r="J53">
         <f>BA19</f>
@@ -23811,9 +23340,9 @@
         <f>BB19</f>
         <v>44.263635103105813</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="216">
         <f>BC19</f>
-        <v>380.57531778474413</v>
+        <v>0.49589396727806551</v>
       </c>
       <c r="M53">
         <f>BD19</f>
@@ -23823,9 +23352,9 @@
         <f>BE19</f>
         <v>20.393346026954863</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="216">
         <f>BF19</f>
-        <v>294.01642026403306</v>
+        <v>0.3729757494103344</v>
       </c>
       <c r="P53">
         <f>BG19</f>
@@ -23835,9 +23364,9 @@
         <f>BH19</f>
         <v>15.806976801943494</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="216">
         <f>BI19</f>
-        <v>574.70583484382678</v>
+        <v>0.73586308118288268</v>
       </c>
       <c r="S53">
         <f>BJ19</f>
